--- a/testcases/UnitTestCase.xlsx
+++ b/testcases/UnitTestCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Documents\test\node-vision-master\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Documents\GitHub\node-vision\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888E4254-C7C3-4F67-9DAB-724C64EC2C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F5B7C4-C881-49F6-A270-5397C277E72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Node Vision</t>
   </si>
   <si>
-    <t>Vision - Image Detection</t>
-  </si>
-  <si>
     <t>Adharsh RJ</t>
   </si>
   <si>
@@ -137,6 +134,9 @@
     <t>1) Click on the browse button.
 2) Select the image.
 3) Click on the classify button.</t>
+  </si>
+  <si>
+    <t>Vision</t>
   </si>
 </sst>
 </file>
@@ -185,18 +185,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,112 +497,113 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="172.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -609,19 +611,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="140" customHeight="1" x14ac:dyDescent="0.35">
@@ -629,19 +631,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="118" customHeight="1" x14ac:dyDescent="0.35">
@@ -649,19 +651,19 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.35">
@@ -669,19 +671,19 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -690,10 +692,10 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F2:Q2"/>
-    <mergeCell ref="F3:P3"/>
-    <mergeCell ref="F4:P4"/>
-    <mergeCell ref="F5:P5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
